--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46764.1147646599</v>
+        <v>-15503.31332925589</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6680549.965209152</v>
+        <v>6332413.071604915</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23670899.21896431</v>
+        <v>23651715.00050325</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4512992.742989212</v>
+        <v>4574429.639615513</v>
       </c>
     </row>
     <row r="11">
@@ -8453,25 +8455,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N8" t="n">
-        <v>74.42176767202952</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R8" t="n">
         <v>42.58424007769262</v>
@@ -8532,25 +8534,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -8614,16 +8616,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>87.76745019286052</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N10" t="n">
-        <v>76.73531661208723</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O10" t="n">
-        <v>95.90977625558899</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P10" t="n">
         <v>87.48425302749862</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>87.74555168308848</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8766,7 +8768,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,19 +8853,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P13" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q13" t="n">
         <v>42.34223702878295</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>87.74555168308848</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K14" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L14" t="n">
-        <v>40.1028531396922</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9094,13 +9096,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P16" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>87.74555168308848</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9240,7 +9242,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,7 +9327,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9334,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>87.74555168308848</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>40.1028531396922</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>32.64460726796537</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,19 +9564,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M22" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O22" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P22" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>40.1028531396922</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>16.43335224433218</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>56.54187083839039</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K24" t="n">
-        <v>32.64460726796537</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9796,22 +9798,22 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O25" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9893,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R26" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K27" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10036,19 +10038,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O28" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P28" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>87.74555168308848</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K29" t="n">
-        <v>68.98158147698732</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>40.1028531396922</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.43335224433218</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>56.54187083839039</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10188,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K30" t="n">
-        <v>32.64460726796537</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,19 +10275,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M31" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N31" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O31" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P31" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K32" t="n">
-        <v>68.98158147698732</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>40.1028531396922</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>16.43335224433218</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>56.54187083839039</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10425,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K33" t="n">
-        <v>32.64460726796537</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N34" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O34" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P34" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K35" t="n">
-        <v>68.98158147698732</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>40.1028531396922</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>16.43335224433218</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>56.54187083839039</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10662,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K36" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,19 +10749,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N37" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O37" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P37" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10838,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>56.54187083839039</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>32.64460726796537</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R39" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,19 +10986,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N40" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O40" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P40" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q40" t="n">
         <v>42.34223702878295</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>87.74555168308848</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>40.1028531396922</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>32.64460726796537</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,7 +11223,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11230,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11297,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>68.98158147698732</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -23033,49 +23035,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>418.0934080885264</v>
+        <v>419.2448920946117</v>
       </c>
       <c r="H8" t="n">
-        <v>339.3940753414475</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>212.2972214058836</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>13.57063122957307</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>122.0365346358061</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>105.9222139730819</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
-        <v>78.8318885537511</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>86.70771710415687</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>116.5194153913582</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>146.8656231846868</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>148.0982088582942</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>210.5456649893907</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>219.2056731633497</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.09096030272</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,49 +23114,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.3461201365529</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>121.887004794376</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>93.64366449363538</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>14.8271391275419</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
-        <v>68.68019772140312</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>35.26465785350914</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>45.801031517992</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>92.13336211952077</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>109.9788170619971</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>184.1891195141138</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>213.3647520849204</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2018534220153</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.3666990440678</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H10" t="n">
-        <v>162.8541593486954</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I10" t="n">
-        <v>154.8063951475636</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>96.62044264882138</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>28.2164366317142</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>88.52321246794781</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>18.07363936789694</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>99.24268633557031</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
-        <v>188.4086946307534</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S10" t="n">
-        <v>229.6160128400592</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T10" t="n">
-        <v>222.3341433135066</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,49 +23272,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H11" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I11" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>68.98158147698734</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M11" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>16.43335224433224</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P11" t="n">
-        <v>56.54187083839042</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8984057757385</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S11" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,19 +23351,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H12" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I12" t="n">
-        <v>85.96027407454947</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J12" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>96.12326613555375</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S12" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T12" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H13" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I13" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J13" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K13" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L13" t="n">
-        <v>59.95218091677093</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.57640008743158</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R13" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S13" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H14" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I14" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23522,34 +23524,34 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M14" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P14" t="n">
-        <v>56.54187083839039</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8984057757385</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S14" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,19 +23588,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H15" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I15" t="n">
-        <v>85.96027407454947</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>96.12326613555373</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S15" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T15" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,28 +23667,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H16" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I16" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J16" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K16" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L16" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M16" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R16" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S16" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,49 +23746,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H17" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I17" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>68.98158147698732</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M17" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P17" t="n">
-        <v>56.54187083839039</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8984057757385</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S17" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,19 +23825,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H18" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I18" t="n">
-        <v>85.96027407454947</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J18" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>96.12326613555373</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S18" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T18" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H19" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I19" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J19" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K19" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L19" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N19" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R19" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S19" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,49 +23983,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H20" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I20" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M20" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P20" t="n">
-        <v>56.54187083839039</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R20" t="n">
-        <v>121.8984057757385</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S20" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,19 +24062,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H21" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I21" t="n">
-        <v>85.96027407454947</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J21" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>96.12326613555373</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S21" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T21" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,28 +24141,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H22" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I22" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J22" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K22" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L22" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R22" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S22" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,49 +24220,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H23" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I23" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J23" t="n">
-        <v>87.74555168308848</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M23" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8984057757385</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S23" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,19 +24299,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H24" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I24" t="n">
-        <v>92.5217582268325</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J24" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>96.12326613555373</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S24" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T24" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H25" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I25" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J25" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K25" t="n">
-        <v>75.64987151995348</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L25" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>82.93013512200093</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R25" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S25" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,49 +24457,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H26" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I26" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J26" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K26" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L26" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M26" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P26" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8984057757385</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S26" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H27" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I27" t="n">
-        <v>85.96027407454947</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J27" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R27" t="n">
-        <v>96.12326613555373</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S27" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T27" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,28 +24615,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H28" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I28" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J28" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K28" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L28" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R28" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S28" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,31 +24694,31 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H29" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I29" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M29" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>121.8984057757385</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S29" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,19 +24773,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H30" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I30" t="n">
-        <v>85.96027407454947</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J30" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>96.12326613555373</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S30" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T30" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H31" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I31" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J31" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K31" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R31" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S31" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,49 +24931,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H32" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I32" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M32" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R32" t="n">
-        <v>121.8984057757385</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S32" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,19 +25010,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H33" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I33" t="n">
-        <v>85.96027407454947</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J33" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>96.12326613555373</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S33" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T33" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,25 +25089,25 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H34" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I34" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J34" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K34" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L34" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R34" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S34" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,49 +25168,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H35" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I35" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M35" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R35" t="n">
-        <v>121.8984057757385</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S35" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,13 +25247,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H36" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I36" t="n">
-        <v>85.96027407454947</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>96.12326613555373</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S36" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T36" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,25 +25326,25 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H37" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I37" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J37" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K37" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L37" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R37" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S37" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,49 +25405,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H38" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I38" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J38" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K38" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L38" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M38" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R38" t="n">
-        <v>164.4826458534311</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S38" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,19 +25484,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H39" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I39" t="n">
-        <v>85.96027407454947</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>96.12326613555373</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S39" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T39" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,25 +25563,25 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H40" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I40" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J40" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K40" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L40" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R40" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S40" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,49 +25642,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H41" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I41" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K41" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M41" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P41" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R41" t="n">
-        <v>121.8984057757385</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S41" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,19 +25721,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H42" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I42" t="n">
-        <v>85.96027407454947</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R42" t="n">
-        <v>96.12326613555373</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S42" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T42" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H43" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I43" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J43" t="n">
-        <v>83.39313745375298</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K43" t="n">
-        <v>6.479910928618636</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L43" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N43" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.57640008743157</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R43" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S43" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,49 +25879,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H44" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I44" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J44" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L44" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M44" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P44" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R44" t="n">
-        <v>164.4826458534311</v>
+        <v>162.4810230712893</v>
       </c>
       <c r="S44" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,19 +25958,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H45" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I45" t="n">
-        <v>92.5217582268325</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J45" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K45" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R45" t="n">
-        <v>125.6213081732896</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S45" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T45" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H46" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I46" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J46" t="n">
-        <v>83.39313745375298</v>
+        <v>104.1788770057366</v>
       </c>
       <c r="K46" t="n">
-        <v>6.479910928618636</v>
+        <v>73.98923594514278</v>
       </c>
       <c r="L46" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M46" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N46" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O46" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R46" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S46" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>323020.1517094481</v>
+        <v>370195.2179534004</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>393028.6418972019</v>
+        <v>426230.2865788242</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418760.487735367</v>
+        <v>419475.0681750546</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>381761.9670534206</v>
+        <v>419071.2080807193</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>406440.9730349455</v>
+        <v>397977.5022006002</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>395022.1718546516</v>
+        <v>417173.890461324</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>371961.2415632494</v>
+        <v>394856.7206514389</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435476.5849060933</v>
+        <v>424425.3138056904</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>430472.3650453854</v>
+        <v>403458.9133275715</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>436070.7787487717</v>
+        <v>405681.1671478651</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>386246.9906290767</v>
+        <v>383447.731731815</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400091.5506371474</v>
+        <v>367980.8926674172</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>367622.9989436907</v>
+        <v>362327.2114137841</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>52885.03113620008</v>
       </c>
       <c r="D2" t="n">
-        <v>52395.94012226495</v>
+        <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>64454.84985971784</v>
+        <v>69326.95938384476</v>
       </c>
       <c r="F2" t="n">
-        <v>68130.82783659859</v>
+        <v>68361.92818330624</v>
       </c>
       <c r="G2" t="n">
-        <v>62845.3248820348</v>
+        <v>68304.23388411549</v>
       </c>
       <c r="H2" t="n">
-        <v>66370.8971651098</v>
+        <v>65290.84732981275</v>
       </c>
       <c r="I2" t="n">
-        <v>64739.63985363924</v>
+        <v>68033.18850991614</v>
       </c>
       <c r="J2" t="n">
-        <v>61445.22124058177</v>
+        <v>64845.02139421829</v>
       </c>
       <c r="K2" t="n">
-        <v>70518.84171813091</v>
+        <v>69069.10613053993</v>
       </c>
       <c r="L2" t="n">
-        <v>69803.95316660122</v>
+        <v>66073.90606223722</v>
       </c>
       <c r="M2" t="n">
-        <v>70603.72655279926</v>
+        <v>66391.37089370773</v>
       </c>
       <c r="N2" t="n">
-        <v>63486.04253569994</v>
+        <v>63215.165834272</v>
       </c>
       <c r="O2" t="n">
-        <v>65463.83682256719</v>
+        <v>61005.61739650089</v>
       </c>
       <c r="P2" t="n">
-        <v>60825.47229493052</v>
+        <v>60200.61975810971</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>245304.072117395</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>83353.25411002267</v>
+        <v>319707.2720247885</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>111.0785621550914</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26423,43 @@
         <v>52885.03113620006</v>
       </c>
       <c r="D4" t="n">
-        <v>8644.510975858466</v>
+        <v>52885.03113620006</v>
       </c>
       <c r="E4" t="n">
-        <v>6299.542738894834</v>
+        <v>10268.53027575566</v>
       </c>
       <c r="F4" t="n">
-        <v>9975.520715775578</v>
+        <v>9303.49907521714</v>
       </c>
       <c r="G4" t="n">
-        <v>4690.017761211787</v>
+        <v>9245.80477602638</v>
       </c>
       <c r="H4" t="n">
-        <v>8215.590044286782</v>
+        <v>6232.41822172365</v>
       </c>
       <c r="I4" t="n">
-        <v>6584.332732816227</v>
+        <v>8974.759401827054</v>
       </c>
       <c r="J4" t="n">
-        <v>3289.914119758759</v>
+        <v>5786.592286129185</v>
       </c>
       <c r="K4" t="n">
-        <v>12363.53459730789</v>
+        <v>10010.67702245084</v>
       </c>
       <c r="L4" t="n">
-        <v>11648.6460457782</v>
+        <v>7015.476954148119</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.41943197624</v>
+        <v>7332.941785618635</v>
       </c>
       <c r="N4" t="n">
-        <v>5330.735414876937</v>
+        <v>4156.736726182896</v>
       </c>
       <c r="O4" t="n">
-        <v>7308.529701744188</v>
+        <v>1947.188288411787</v>
       </c>
       <c r="P4" t="n">
-        <v>2670.165174107508</v>
+        <v>1123.492865125814</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>39871.80989399894</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="F5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="G5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="H5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="I5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="J5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="K5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="L5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="M5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="N5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="O5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="P5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>-33627.59999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>-241424.4528649874</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>-33703.9121163736</v>
+        <v>-269323.9642818678</v>
       </c>
       <c r="F6" t="n">
-        <v>49649.34199364907</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="G6" t="n">
-        <v>49649.34199364908</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="H6" t="n">
-        <v>49649.34199364907</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="I6" t="n">
-        <v>49649.34199364908</v>
+        <v>50383.30774292069</v>
       </c>
       <c r="J6" t="n">
-        <v>49649.34199364907</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="K6" t="n">
-        <v>49649.34199364908</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="L6" t="n">
-        <v>49649.34199364908</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="M6" t="n">
-        <v>49649.34199364907</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="N6" t="n">
-        <v>49649.34199364906</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="O6" t="n">
-        <v>49649.34199364907</v>
+        <v>50383.3077429207</v>
       </c>
       <c r="P6" t="n">
-        <v>49649.34199364907</v>
+        <v>50287.2887445482</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>286.431646513713</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="F3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="G3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="H3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="I3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="J3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="K3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="L3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="M3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="N3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="O3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="P3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
     </row>
     <row r="4">
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>286.431646513713</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.7502400538991</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.1668908767069297</v>
       </c>
     </row>
     <row r="4">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.151484006085277</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>11.79263557732085</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3925871446027</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>97.7307656614804</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>146.4730836390702</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.7128122903026</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>202.1905159835216</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>205.4621699158114</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>194.0121008303009</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>165.5848394300706</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3473184621416</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>72.33190719725437</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>26.23944178866829</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>5.040621236638304</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09211872048682217</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6160982585389299</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.950212128520717</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>21.21215495408158</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>58.20777450520653</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>99.48635782731483</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>133.7716854779374</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1052473499736</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>146.5854483814093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>117.6477455274909</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>78.6444022654255</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.25213573630304</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>11.44375493382617</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.483308331567001</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04053278016703487</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5165160838771873</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.59229754574445</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>15.53304732241578</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>36.51768713011714</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>60.00977774500411</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>76.79185487025019</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>80.96624394813034</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>79.04104763549726</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>73.00720065565919</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>62.47027254456452</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.25117862357066</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>23.22444137142334</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>9.001466661750616</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.206932358384345</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02817360457511934</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H11" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I11" t="n">
-        <v>60.47231027898639</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J11" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K11" t="n">
-        <v>199.5280367978889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L11" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M11" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N11" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P11" t="n">
-        <v>225.5623839830384</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R11" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S11" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T11" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H12" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I12" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J12" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K12" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L12" t="n">
         <v>169.0363433314465</v>
@@ -31856,22 +31858,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R12" t="n">
-        <v>52.10768666274639</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S12" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T12" t="n">
-        <v>3.382803337317314</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H13" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I13" t="n">
-        <v>21.1593718158305</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J13" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K13" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L13" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M13" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N13" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O13" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P13" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R13" t="n">
-        <v>31.63671493382637</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S13" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T13" t="n">
-        <v>3.006319453881599</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H14" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I14" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J14" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K14" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L14" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M14" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N14" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P14" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R14" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S14" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T14" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H15" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I15" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J15" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K15" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
@@ -32093,22 +32095,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R15" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S15" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T15" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H16" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I16" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J16" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K16" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L16" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M16" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N16" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O16" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P16" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R16" t="n">
-        <v>31.63671493382637</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S16" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T16" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H17" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I17" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J17" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K17" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L17" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M17" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N17" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P17" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R17" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S17" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T17" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H18" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I18" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J18" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K18" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L18" t="n">
         <v>169.0363433314465</v>
@@ -32330,22 +32332,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R18" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S18" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T18" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H19" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I19" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J19" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K19" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L19" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M19" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N19" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O19" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P19" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R19" t="n">
-        <v>31.63671493382637</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S19" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T19" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H20" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I20" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J20" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K20" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L20" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M20" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N20" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P20" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q20" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R20" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S20" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T20" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H21" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I21" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J21" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K21" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L21" t="n">
         <v>169.0363433314465</v>
@@ -32567,22 +32569,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R21" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S21" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T21" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H22" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I22" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J22" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K22" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L22" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M22" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N22" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P22" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R22" t="n">
-        <v>31.63671493382637</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S22" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T22" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H23" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I23" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J23" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K23" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L23" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M23" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N23" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P23" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q23" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R23" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S23" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T23" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H24" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I24" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J24" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K24" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L24" t="n">
         <v>169.0363433314465</v>
@@ -32804,22 +32806,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R24" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S24" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T24" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H25" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I25" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J25" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K25" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L25" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M25" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N25" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P25" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R25" t="n">
-        <v>31.63671493382637</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S25" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T25" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H26" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I26" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J26" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K26" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L26" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M26" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N26" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P26" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R26" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S26" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T26" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H27" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I27" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J27" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K27" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L27" t="n">
         <v>169.0363433314465</v>
@@ -33041,22 +33043,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R27" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S27" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T27" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H28" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I28" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J28" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K28" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L28" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M28" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N28" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P28" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R28" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S28" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T28" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H29" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I29" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J29" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K29" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L29" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M29" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N29" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P29" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q29" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R29" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S29" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T29" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H30" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I30" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J30" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K30" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L30" t="n">
         <v>169.0363433314465</v>
@@ -33278,22 +33280,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R30" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S30" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T30" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H31" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I31" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J31" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K31" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L31" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M31" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N31" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P31" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R31" t="n">
-        <v>31.63671493382637</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S31" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T31" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H32" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I32" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J32" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K32" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L32" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M32" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N32" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P32" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q32" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R32" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S32" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T32" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H33" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I33" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J33" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K33" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L33" t="n">
         <v>169.0363433314465</v>
@@ -33515,22 +33517,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R33" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S33" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T33" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H34" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I34" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J34" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K34" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L34" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M34" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N34" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P34" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R34" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S34" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T34" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H35" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I35" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J35" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K35" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L35" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M35" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N35" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P35" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q35" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R35" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S35" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T35" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H36" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I36" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J36" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K36" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L36" t="n">
         <v>169.0363433314465</v>
@@ -33752,22 +33754,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R36" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S36" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T36" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H37" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I37" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J37" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K37" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L37" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M37" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N37" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P37" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R37" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S37" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T37" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H38" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I38" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J38" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K38" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L38" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M38" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N38" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P38" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q38" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R38" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S38" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T38" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H39" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I39" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J39" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K39" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L39" t="n">
         <v>169.0363433314465</v>
@@ -33989,22 +33991,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R39" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S39" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T39" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H40" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I40" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J40" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K40" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L40" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M40" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N40" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P40" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R40" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S40" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T40" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H41" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I41" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J41" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K41" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L41" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M41" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N41" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P41" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q41" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R41" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S41" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T41" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H42" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I42" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J42" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K42" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L42" t="n">
         <v>169.0363433314465</v>
@@ -34226,22 +34228,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R42" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S42" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T42" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H43" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I43" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J43" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K43" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L43" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M43" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N43" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P43" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R43" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S43" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T43" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H44" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I44" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J44" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K44" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L44" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M44" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P44" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q44" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R44" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S44" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T44" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H45" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I45" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J45" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K45" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34463,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R45" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S45" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T45" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H46" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I46" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J46" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K46" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L46" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M46" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N46" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P46" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R46" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S46" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T46" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15503.31332925589</v>
+        <v>-145472.5732012253</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6332413.071604915</v>
+        <v>5950877.313289685</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23651715.00050325</v>
+        <v>22756266.21947821</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4574429.639615513</v>
+        <v>4990571.668630724</v>
       </c>
     </row>
     <row r="11">
@@ -8221,13 +8221,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M5" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N5" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O5" t="n">
         <v>246.758517458259</v>
@@ -8297,22 +8297,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L6" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M6" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N6" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O6" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8455,22 +8455,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L8" t="n">
-        <v>270.6444670286918</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M8" t="n">
-        <v>281.0224045372727</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N8" t="n">
-        <v>279.8839375878409</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O8" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P8" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q8" t="n">
         <v>137.5801139476182</v>
@@ -8534,25 +8534,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -8616,16 +8616,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M10" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N10" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O10" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P10" t="n">
         <v>87.48425302749862</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>85.09801597620873</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K11" t="n">
         <v>65.01361175520637</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q11" t="n">
         <v>98.45640440597657</v>
@@ -8771,7 +8771,7 @@
         <v>73.87346532306307</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>57.00252778049483</v>
       </c>
       <c r="N13" t="n">
-        <v>45.96412335430749</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O13" t="n">
         <v>67.48759882007782</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>85.09801597620873</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K14" t="n">
         <v>65.01361175520637</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q14" t="n">
         <v>98.45640440597657</v>
@@ -9008,7 +9008,7 @@
         <v>73.87346532306307</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9090,13 +9090,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O16" t="n">
         <v>67.48759882007782</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.09801597620873</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K17" t="n">
         <v>65.01361175520637</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q17" t="n">
         <v>98.45640440597657</v>
@@ -9245,7 +9245,7 @@
         <v>73.87346532306307</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>57.87188228828438</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P19" t="n">
         <v>81.23780951643748</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.09801597620873</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9570,7 +9570,7 @@
         <v>57.00252778049483</v>
       </c>
       <c r="N22" t="n">
-        <v>45.96412335430749</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O22" t="n">
         <v>67.48759882007782</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.09801597620873</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q23" t="n">
         <v>98.45640440597657</v>
@@ -9719,7 +9719,7 @@
         <v>73.87346532306307</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>57.00252778049483</v>
       </c>
       <c r="N25" t="n">
-        <v>45.96412335430749</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O25" t="n">
         <v>67.48759882007782</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q26" t="n">
         <v>98.45640440597657</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>85.09801597620873</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P29" t="n">
-        <v>52.05616184039113</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q29" t="n">
         <v>98.45640440597657</v>
@@ -10193,7 +10193,7 @@
         <v>73.87346532306307</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>57.00252778049483</v>
       </c>
       <c r="N31" t="n">
-        <v>45.96412335430749</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O31" t="n">
         <v>67.48759882007782</v>
@@ -10351,25 +10351,25 @@
         <v>85.0980159762087</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10430,7 +10430,7 @@
         <v>73.87346532306307</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>85.0980159762087</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>61.51658548073077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11226,13 +11226,13 @@
         <v>57.87188228828438</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P43" t="n">
         <v>81.23780951643748</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P46" t="n">
-        <v>81.2014108898193</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -22798,22 +22798,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H5" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I5" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J5" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K5" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L5" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R5" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S5" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T5" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22877,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H6" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I6" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J6" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R6" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S6" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T6" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22956,49 +22956,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H7" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I7" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J7" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K7" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L7" t="n">
-        <v>59.27569846418345</v>
+        <v>45.83348920913111</v>
       </c>
       <c r="M7" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N7" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O7" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P7" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q7" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R7" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S7" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T7" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23035,22 +23035,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>419.2448920946117</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H8" t="n">
-        <v>351.1867109187684</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J8" t="n">
-        <v>111.3013968910535</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K8" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.6328276992101</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R8" t="n">
-        <v>220.4301160555486</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T8" t="n">
-        <v>224.246294399988</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23114,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23193,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.883215127945</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H10" t="n">
-        <v>167.4464568944399</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I10" t="n">
-        <v>170.3394424699794</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J10" t="n">
-        <v>133.1381297789385</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K10" t="n">
-        <v>88.2262143767183</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L10" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.54391191246145</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.493864959141</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R10" t="n">
-        <v>211.6331360021768</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S10" t="n">
-        <v>238.6174795018098</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T10" t="n">
-        <v>224.541075671891</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23287,19 +23287,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>35.18023582793884</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>52.05616184039113</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.94951240287884</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.08701215206337</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S12" t="n">
         <v>179.733991385153</v>
@@ -23439,7 +23439,7 @@
         <v>148.7592789296147</v>
       </c>
       <c r="J13" t="n">
-        <v>82.40386984743405</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K13" t="n">
         <v>4.854240360436052</v>
@@ -23524,19 +23524,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>35.18023582793884</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>52.05616184039113</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.94951240287884</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.08701215206337</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S15" t="n">
         <v>179.733991385153</v>
@@ -23676,19 +23676,19 @@
         <v>148.7592789296147</v>
       </c>
       <c r="J16" t="n">
-        <v>82.40386984743405</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K16" t="n">
         <v>4.854240360436052</v>
       </c>
       <c r="L16" t="n">
-        <v>57.87188228828438</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>57.00252778049483</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>45.96412335430749</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -23761,19 +23761,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>35.18023582793884</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>52.05616184039113</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23837,7 +23837,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>29.94951240287884</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.08701215206337</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S18" t="n">
         <v>179.733991385153</v>
@@ -23913,7 +23913,7 @@
         <v>148.7592789296147</v>
       </c>
       <c r="J19" t="n">
-        <v>82.40386984743405</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K19" t="n">
         <v>4.854240360436052</v>
@@ -23922,13 +23922,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>57.00252778049483</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>45.96412335430749</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>67.48759882007782</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23995,25 +23995,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>65.01361175520637</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>35.18023582793884</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>52.05616184039113</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.45640440597657</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>119.9389275525271</v>
@@ -24071,10 +24071,10 @@
         <v>85.3856347858804</v>
       </c>
       <c r="J21" t="n">
-        <v>73.87346532306307</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>29.94951240287884</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.08701215206337</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S21" t="n">
         <v>179.733991385153</v>
@@ -24150,7 +24150,7 @@
         <v>148.7592789296147</v>
       </c>
       <c r="J22" t="n">
-        <v>82.40386984743405</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K22" t="n">
         <v>4.854240360436052</v>
@@ -24232,22 +24232,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>65.01361175520637</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>35.18023582793884</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>52.05616184039113</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24311,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>29.94951240287884</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>95.08701215206337</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S24" t="n">
         <v>179.733991385153</v>
@@ -24387,7 +24387,7 @@
         <v>148.7592789296147</v>
       </c>
       <c r="J25" t="n">
-        <v>82.40386984743405</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K25" t="n">
         <v>4.854240360436052</v>
@@ -24466,31 +24466,31 @@
         <v>195.0148988772292</v>
       </c>
       <c r="J26" t="n">
-        <v>85.0980159762087</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>65.01361175520637</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>35.18023582793882</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>52.0561618403911</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>162.5231676302197</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S26" t="n">
         <v>200.3304798620524</v>
@@ -24566,10 +24566,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.51658548073077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>124.5850541897993</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S27" t="n">
         <v>179.733991385153</v>
@@ -24706,19 +24706,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>65.01361175520637</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>35.18023582793884</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.94951240287884</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.08701215206337</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S30" t="n">
         <v>179.733991385153</v>
@@ -24861,7 +24861,7 @@
         <v>148.7592789296147</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40386984743405</v>
+        <v>82.40386984743404</v>
       </c>
       <c r="K31" t="n">
         <v>4.854240360436052</v>
@@ -24943,25 +24943,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>65.01361175520637</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>35.18023582793882</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>52.0561618403911</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.45640440597657</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>119.9389275525271</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>29.94951240287881</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25180,25 +25180,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>65.01361175520637</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>35.18023582793882</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>52.0561618403911</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.45640440597657</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>119.9389275525271</v>
@@ -25414,28 +25414,28 @@
         <v>195.0148988772292</v>
       </c>
       <c r="J38" t="n">
-        <v>85.0980159762087</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>65.01361175520637</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>35.18023582793882</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>52.0561618403911</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.45640440597657</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>119.9389275525271</v>
@@ -25490,13 +25490,13 @@
         <v>119.5705485629778</v>
       </c>
       <c r="I39" t="n">
-        <v>91.94711893816341</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J39" t="n">
-        <v>73.87346532306307</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>29.94951240287881</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>124.5850541897993</v>
+        <v>95.08701215206335</v>
       </c>
       <c r="S39" t="n">
         <v>179.733991385153</v>
@@ -25651,31 +25651,31 @@
         <v>195.0148988772292</v>
       </c>
       <c r="J41" t="n">
-        <v>85.0980159762087</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>65.01361175520637</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>35.18023582793882</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>52.0561618403911</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.45640440597657</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>162.5231676302197</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S41" t="n">
         <v>200.3304798620524</v>
@@ -25727,13 +25727,13 @@
         <v>119.5705485629778</v>
       </c>
       <c r="I42" t="n">
-        <v>91.94711893816341</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J42" t="n">
-        <v>73.87346532306307</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>29.94951240287881</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.51658548073077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>95.08701215206335</v>
@@ -25818,13 +25818,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>57.00252778049483</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>45.96412335430747</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>67.48759882007782</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -25879,22 +25879,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6444569673644</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H44" t="n">
-        <v>334.7962546718464</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I44" t="n">
-        <v>194.9890333072825</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J44" t="n">
-        <v>85.04107264134677</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>64.9282684572851</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>35.07435992029687</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25903,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.0645038884594</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>51.95968297934965</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.3839527992952</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>162.4810230712893</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S44" t="n">
-        <v>200.3151913159098</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2403896304627</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U44" t="n">
-        <v>250.055044213027</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,19 +25958,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1059101097915</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H45" t="n">
-        <v>119.5670816411805</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I45" t="n">
-        <v>85.37327541435067</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J45" t="n">
-        <v>73.8395502629202</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.47076291397906</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>95.06472434781182</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S45" t="n">
-        <v>179.7273236222959</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T45" t="n">
-        <v>212.3965371086322</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U45" t="n">
-        <v>237.186050130781</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1653150268088</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H46" t="n">
-        <v>161.0636723588838</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I46" t="n">
-        <v>148.7502285194483</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J46" t="n">
-        <v>104.1788770057366</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K46" t="n">
-        <v>73.98923594514278</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L46" t="n">
-        <v>57.82713911783085</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>56.95535238070698</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>45.91806968008439</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>67.44506079792963</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.37952103582114</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R46" t="n">
-        <v>179.3537369092726</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S46" t="n">
-        <v>226.1064386483733</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T46" t="n">
-        <v>221.4736843306728</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>370195.2179534004</v>
+        <v>393571.8005347874</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>370195.2179534004</v>
+        <v>438211.2262065251</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426230.2865788242</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>419475.0681750546</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>419071.2080807193</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>397977.5022006002</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>417173.890461324</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>394856.7206514389</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424425.3138056904</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>403458.9133275715</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>405681.1671478651</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>383447.731731815</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367980.8926674172</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362327.2114137841</v>
+        <v>442178.0133211787</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>52885.03113620008</v>
       </c>
       <c r="C2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.62449203681</v>
       </c>
       <c r="D2" t="n">
-        <v>52885.03113620008</v>
+        <v>68851.80790756167</v>
       </c>
       <c r="E2" t="n">
-        <v>69326.95938384476</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="F2" t="n">
-        <v>68361.92818330624</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="G2" t="n">
-        <v>68304.23388411549</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="H2" t="n">
-        <v>65290.84732981275</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="I2" t="n">
-        <v>68033.18850991614</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="J2" t="n">
-        <v>64845.02139421829</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="K2" t="n">
-        <v>69069.10613053993</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="L2" t="n">
-        <v>66073.90606223722</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="M2" t="n">
-        <v>66391.37089370773</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="N2" t="n">
-        <v>63215.165834272</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="O2" t="n">
-        <v>61005.61739650089</v>
+        <v>71605.20606132396</v>
       </c>
       <c r="P2" t="n">
-        <v>60200.61975810971</v>
+        <v>71605.20606132396</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>45656.76045959518</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>202364.2489539891</v>
       </c>
       <c r="E3" t="n">
-        <v>319707.2720247885</v>
+        <v>89587.22792073197</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>111.0785621550914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>52885.03113620006</v>
       </c>
       <c r="C4" t="n">
-        <v>52885.03113620006</v>
+        <v>49660.05358256615</v>
       </c>
       <c r="D4" t="n">
-        <v>52885.03113620006</v>
+        <v>25100.37876115517</v>
       </c>
       <c r="E4" t="n">
-        <v>10268.53027575566</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="F4" t="n">
-        <v>9303.49907521714</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="G4" t="n">
-        <v>9245.80477602638</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="H4" t="n">
-        <v>6232.41822172365</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="I4" t="n">
-        <v>8974.759401827054</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="J4" t="n">
-        <v>5786.592286129185</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="K4" t="n">
-        <v>10010.67702245084</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="L4" t="n">
-        <v>7015.476954148119</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="M4" t="n">
-        <v>7332.941785618635</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="N4" t="n">
-        <v>4156.736726182896</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="O4" t="n">
-        <v>1947.188288411787</v>
+        <v>12546.77695323487</v>
       </c>
       <c r="P4" t="n">
-        <v>1123.492865125814</v>
+        <v>12546.77695323487</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>34720.63227756931</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>39871.80989399894</v>
       </c>
       <c r="E5" t="n">
         <v>8675.121365168401</v>
@@ -26511,7 +26511,7 @@
         <v>8675.121365168401</v>
       </c>
       <c r="P5" t="n">
-        <v>8678.759586280614</v>
+        <v>8675.121365168401</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-50432.06060784338</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-89079.92309995354</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-213692.4126322888</v>
       </c>
       <c r="E6" t="n">
-        <v>-269323.9642818678</v>
+        <v>-54136.36329314228</v>
       </c>
       <c r="F6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="G6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="H6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="I6" t="n">
-        <v>50383.30774292069</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="J6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="K6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="L6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="M6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="N6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="O6" t="n">
-        <v>50383.3077429207</v>
+        <v>35450.86462758969</v>
       </c>
       <c r="P6" t="n">
-        <v>50287.2887445482</v>
+        <v>35450.86462758968</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>286.431646513713</v>
       </c>
       <c r="E3" t="n">
         <v>397.9413470260735</v>
@@ -26779,7 +26779,7 @@
         <v>397.9413470260735</v>
       </c>
       <c r="P3" t="n">
-        <v>398.1082379027804</v>
+        <v>397.9413470260735</v>
       </c>
     </row>
     <row r="4">
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>236.2925512123682</v>
       </c>
       <c r="E3" t="n">
-        <v>397.9413470260735</v>
+        <v>111.5097005123605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1668908767069297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.2015642022164613</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>27.32580693923291</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>28.04903973843816</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.8038694295854958</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.719018479620469</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>13.8359244460252</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>7.571003390503064</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.065376481318873</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31779,7 +31779,7 @@
         <v>269.5422718944295</v>
       </c>
       <c r="P11" t="n">
-        <v>230.0480929810377</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q11" t="n">
         <v>172.7565372408518</v>
@@ -31788,7 +31788,7 @@
         <v>100.4911885030215</v>
       </c>
       <c r="S11" t="n">
-        <v>36.45462691600663</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T11" t="n">
         <v>7.002967825554316</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H12" t="n">
         <v>8.266668359918999</v>
       </c>
       <c r="I12" t="n">
-        <v>29.47018466183657</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J12" t="n">
         <v>80.86843921027028</v>
@@ -31864,13 +31864,13 @@
         <v>109.2611789042155</v>
       </c>
       <c r="R12" t="n">
-        <v>53.14394064623677</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S12" t="n">
         <v>15.89888306278698</v>
       </c>
       <c r="T12" t="n">
-        <v>3.450076395443031</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U12" t="n">
         <v>0.05631245476784061</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H13" t="n">
         <v>6.380108809696723</v>
@@ -31919,7 +31919,7 @@
         <v>21.58016354036478</v>
       </c>
       <c r="J13" t="n">
-        <v>50.73425993150447</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K13" t="n">
         <v>83.37197401628225</v>
@@ -31943,7 +31943,7 @@
         <v>60.08914340093709</v>
       </c>
       <c r="R13" t="n">
-        <v>32.26586725231079</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S13" t="n">
         <v>12.50579610244234</v>
@@ -32016,7 +32016,7 @@
         <v>269.5422718944295</v>
       </c>
       <c r="P14" t="n">
-        <v>230.0480929810377</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q14" t="n">
         <v>172.7565372408518</v>
@@ -32025,7 +32025,7 @@
         <v>100.4911885030215</v>
       </c>
       <c r="S14" t="n">
-        <v>36.45462691600663</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T14" t="n">
         <v>7.002967825554316</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H15" t="n">
         <v>8.266668359918999</v>
       </c>
       <c r="I15" t="n">
-        <v>29.47018466183657</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J15" t="n">
         <v>80.86843921027028</v>
@@ -32101,13 +32101,13 @@
         <v>109.2611789042155</v>
       </c>
       <c r="R15" t="n">
-        <v>53.14394064623677</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S15" t="n">
         <v>15.89888306278698</v>
       </c>
       <c r="T15" t="n">
-        <v>3.450076395443031</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U15" t="n">
         <v>0.05631245476784061</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H16" t="n">
         <v>6.380108809696723</v>
@@ -32156,7 +32156,7 @@
         <v>21.58016354036478</v>
       </c>
       <c r="J16" t="n">
-        <v>50.73425993150447</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K16" t="n">
         <v>83.37197401628225</v>
@@ -32180,7 +32180,7 @@
         <v>60.08914340093709</v>
       </c>
       <c r="R16" t="n">
-        <v>32.26586725231079</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S16" t="n">
         <v>12.50579610244234</v>
@@ -32253,7 +32253,7 @@
         <v>269.5422718944295</v>
       </c>
       <c r="P17" t="n">
-        <v>230.0480929810377</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q17" t="n">
         <v>172.7565372408518</v>
@@ -32262,7 +32262,7 @@
         <v>100.4911885030215</v>
       </c>
       <c r="S17" t="n">
-        <v>36.45462691600663</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T17" t="n">
         <v>7.002967825554316</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H18" t="n">
         <v>8.266668359918999</v>
       </c>
       <c r="I18" t="n">
-        <v>29.47018466183657</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J18" t="n">
         <v>80.86843921027028</v>
@@ -32338,13 +32338,13 @@
         <v>109.2611789042155</v>
       </c>
       <c r="R18" t="n">
-        <v>53.14394064623677</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S18" t="n">
         <v>15.89888306278698</v>
       </c>
       <c r="T18" t="n">
-        <v>3.450076395443031</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U18" t="n">
         <v>0.05631245476784061</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H19" t="n">
         <v>6.380108809696723</v>
@@ -32393,7 +32393,7 @@
         <v>21.58016354036478</v>
       </c>
       <c r="J19" t="n">
-        <v>50.73425993150447</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K19" t="n">
         <v>83.37197401628225</v>
@@ -32417,7 +32417,7 @@
         <v>60.08914340093709</v>
       </c>
       <c r="R19" t="n">
-        <v>32.26586725231079</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S19" t="n">
         <v>12.50579610244234</v>
@@ -32490,7 +32490,7 @@
         <v>269.5422718944295</v>
       </c>
       <c r="P20" t="n">
-        <v>230.0480929810377</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q20" t="n">
         <v>172.7565372408518</v>
@@ -32499,7 +32499,7 @@
         <v>100.4911885030215</v>
       </c>
       <c r="S20" t="n">
-        <v>36.45462691600663</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T20" t="n">
         <v>7.002967825554316</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H21" t="n">
         <v>8.266668359918999</v>
       </c>
       <c r="I21" t="n">
-        <v>29.47018466183657</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J21" t="n">
         <v>80.86843921027028</v>
@@ -32575,13 +32575,13 @@
         <v>109.2611789042155</v>
       </c>
       <c r="R21" t="n">
-        <v>53.14394064623677</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S21" t="n">
         <v>15.89888306278698</v>
       </c>
       <c r="T21" t="n">
-        <v>3.450076395443031</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U21" t="n">
         <v>0.05631245476784061</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H22" t="n">
         <v>6.380108809696723</v>
@@ -32630,7 +32630,7 @@
         <v>21.58016354036478</v>
       </c>
       <c r="J22" t="n">
-        <v>50.73425993150447</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K22" t="n">
         <v>83.37197401628225</v>
@@ -32654,7 +32654,7 @@
         <v>60.08914340093709</v>
       </c>
       <c r="R22" t="n">
-        <v>32.26586725231079</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S22" t="n">
         <v>12.50579610244234</v>
@@ -32727,7 +32727,7 @@
         <v>269.5422718944295</v>
       </c>
       <c r="P23" t="n">
-        <v>230.0480929810377</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q23" t="n">
         <v>172.7565372408518</v>
@@ -32736,7 +32736,7 @@
         <v>100.4911885030215</v>
       </c>
       <c r="S23" t="n">
-        <v>36.45462691600663</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T23" t="n">
         <v>7.002967825554316</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H24" t="n">
         <v>8.266668359918999</v>
       </c>
       <c r="I24" t="n">
-        <v>29.47018466183657</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J24" t="n">
         <v>80.86843921027028</v>
@@ -32812,13 +32812,13 @@
         <v>109.2611789042155</v>
       </c>
       <c r="R24" t="n">
-        <v>53.14394064623677</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S24" t="n">
         <v>15.89888306278698</v>
       </c>
       <c r="T24" t="n">
-        <v>3.450076395443031</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U24" t="n">
         <v>0.05631245476784061</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H25" t="n">
         <v>6.380108809696723</v>
@@ -32867,7 +32867,7 @@
         <v>21.58016354036478</v>
       </c>
       <c r="J25" t="n">
-        <v>50.73425993150447</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K25" t="n">
         <v>83.37197401628225</v>
@@ -32891,7 +32891,7 @@
         <v>60.08914340093709</v>
       </c>
       <c r="R25" t="n">
-        <v>32.26586725231079</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S25" t="n">
         <v>12.50579610244234</v>
@@ -33201,7 +33201,7 @@
         <v>269.5422718944295</v>
       </c>
       <c r="P29" t="n">
-        <v>230.0480929810377</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q29" t="n">
         <v>172.7565372408518</v>
@@ -33210,7 +33210,7 @@
         <v>100.4911885030215</v>
       </c>
       <c r="S29" t="n">
-        <v>36.45462691600663</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T29" t="n">
         <v>7.002967825554316</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H30" t="n">
         <v>8.266668359918999</v>
       </c>
       <c r="I30" t="n">
-        <v>29.47018466183657</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J30" t="n">
         <v>80.86843921027028</v>
@@ -33286,13 +33286,13 @@
         <v>109.2611789042155</v>
       </c>
       <c r="R30" t="n">
-        <v>53.14394064623677</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S30" t="n">
         <v>15.89888306278698</v>
       </c>
       <c r="T30" t="n">
-        <v>3.450076395443031</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U30" t="n">
         <v>0.05631245476784061</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H31" t="n">
         <v>6.380108809696723</v>
@@ -33341,7 +33341,7 @@
         <v>21.58016354036478</v>
       </c>
       <c r="J31" t="n">
-        <v>50.73425993150447</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K31" t="n">
         <v>83.37197401628225</v>
@@ -33365,7 +33365,7 @@
         <v>60.08914340093709</v>
       </c>
       <c r="R31" t="n">
-        <v>32.26586725231079</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S31" t="n">
         <v>12.50579610244234</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.600435127247357</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H44" t="n">
-        <v>16.390456246922</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I44" t="n">
-        <v>61.70077524320381</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J44" t="n">
-        <v>135.8349308812105</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K44" t="n">
-        <v>203.5813498175912</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L44" t="n">
-        <v>252.5606663430875</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6553140459984</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P44" t="n">
-        <v>230.1445718420792</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.8289888475332</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R44" t="n">
-        <v>100.5333330619519</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S44" t="n">
-        <v>36.46991546214919</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T44" t="n">
-        <v>7.00590476952531</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8563082853003202</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H45" t="n">
-        <v>8.270135281716252</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I45" t="n">
-        <v>29.48254403336629</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J45" t="n">
-        <v>80.90235427041316</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K45" t="n">
-        <v>138.2750093855346</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34468,19 +34468,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.3070014709672</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R45" t="n">
-        <v>53.16622845048833</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S45" t="n">
-        <v>15.90555082564409</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T45" t="n">
-        <v>3.451523307855237</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H46" t="n">
-        <v>6.382784535556058</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I46" t="n">
-        <v>21.58921395053111</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J46" t="n">
-        <v>50.7555371503266</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K46" t="n">
-        <v>83.40693902291036</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L46" t="n">
-        <v>106.7321659452799</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M46" t="n">
-        <v>112.5341040353712</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N46" t="n">
-        <v>109.8582945675001</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O46" t="n">
-        <v>101.4719161133186</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P46" t="n">
-        <v>86.82675405014078</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.11434392331984</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R46" t="n">
-        <v>32.27939909290412</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S46" t="n">
-        <v>12.51104085343655</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T46" t="n">
-        <v>3.067391341218143</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
